--- a/data/origin/fuel.xlsx
+++ b/data/origin/fuel.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Deisel, euro</t>
+          <t>Diesel, euro</t>
         </is>
       </c>
     </row>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.616090494413145</v>
+        <v>1.417536761259519</v>
       </c>
       <c r="C2" t="n">
-        <v>1.584195162154511</v>
+        <v>1.387763560749361</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.517303650602612</v>
+        <v>1.487517948405626</v>
       </c>
       <c r="C3" t="n">
-        <v>1.702325875426267</v>
+        <v>1.600014992651908</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.67285553859735</v>
+        <v>1.749848778729412</v>
       </c>
       <c r="C4" t="n">
-        <v>1.434611561490837</v>
+        <v>1.445129754830726</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.525162759821182</v>
+        <v>1.600680535078699</v>
       </c>
       <c r="C5" t="n">
-        <v>1.572527193120287</v>
+        <v>1.565222820569148</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.771719758725501</v>
+        <v>1.667905524986182</v>
       </c>
       <c r="C6" t="n">
-        <v>1.533573884455453</v>
+        <v>1.576072073593216</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.570220834008329</v>
+        <v>1.533552043837033</v>
       </c>
       <c r="C7" t="n">
-        <v>1.602621764079811</v>
+        <v>1.491266542898457</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.557121927237038</v>
+        <v>1.694155005859374</v>
       </c>
       <c r="C8" t="n">
-        <v>1.510129775544403</v>
+        <v>1.466363119364712</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.576608299758753</v>
+        <v>1.597792492465556</v>
       </c>
       <c r="C9" t="n">
-        <v>1.310770720993308</v>
+        <v>1.584878018373057</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.492983996531096</v>
+        <v>1.614456472859469</v>
       </c>
       <c r="C10" t="n">
-        <v>1.27383450059191</v>
+        <v>1.538283327967656</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.497719246210232</v>
+        <v>1.767269508610895</v>
       </c>
       <c r="C11" t="n">
-        <v>1.460219803298759</v>
+        <v>1.531940411401466</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.617984785143729</v>
+        <v>1.769068774308107</v>
       </c>
       <c r="C12" t="n">
-        <v>1.386182674060776</v>
+        <v>1.546814822090564</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.78221889981954</v>
+        <v>1.464446725218298</v>
       </c>
       <c r="C13" t="n">
-        <v>1.481193794723482</v>
+        <v>1.449094724433857</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.549194428735106</v>
+        <v>1.451816837306524</v>
       </c>
       <c r="C14" t="n">
-        <v>1.379551971351273</v>
+        <v>1.302521810815292</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.698293915624448</v>
+        <v>1.639508148164091</v>
       </c>
       <c r="C15" t="n">
-        <v>1.603144028673449</v>
+        <v>1.37165813413664</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.661940802265523</v>
+        <v>1.455595463748326</v>
       </c>
       <c r="C16" t="n">
-        <v>1.449575496411143</v>
+        <v>1.762525639651659</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.500877518402216</v>
+        <v>1.570952079158571</v>
       </c>
       <c r="C17" t="n">
-        <v>1.491216357133169</v>
+        <v>1.33947886005827</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.474337363124277</v>
+        <v>1.757471361423333</v>
       </c>
       <c r="C18" t="n">
-        <v>1.657321412527347</v>
+        <v>1.454367762844157</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.553038822315573</v>
+        <v>1.271825231248996</v>
       </c>
       <c r="C19" t="n">
-        <v>1.449268800608967</v>
+        <v>1.551253461030605</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.511914829259385</v>
+        <v>1.463496250474586</v>
       </c>
       <c r="C20" t="n">
-        <v>1.621366949281885</v>
+        <v>1.580743865745955</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.69555689020935</v>
+        <v>1.624310557657431</v>
       </c>
       <c r="C21" t="n">
-        <v>1.361224604793159</v>
+        <v>1.627142253409851</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.528470938567706</v>
+        <v>1.754465896030747</v>
       </c>
       <c r="C22" t="n">
-        <v>1.336148658677462</v>
+        <v>1.600677326900829</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.539989232902839</v>
+        <v>1.445670477022046</v>
       </c>
       <c r="C23" t="n">
-        <v>1.48300960884784</v>
+        <v>1.400279661335945</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.554290394788578</v>
+        <v>1.582197447677054</v>
       </c>
       <c r="C24" t="n">
-        <v>1.535909275215313</v>
+        <v>1.4012964704435</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.626311170809195</v>
+        <v>1.614165597155182</v>
       </c>
       <c r="C25" t="n">
-        <v>1.62328261849731</v>
+        <v>1.553985382394949</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.51402074820246</v>
+        <v>1.546781631048924</v>
       </c>
       <c r="C26" t="n">
-        <v>1.537538655634608</v>
+        <v>1.536017058108738</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.518576986624323</v>
+        <v>1.471139652422595</v>
       </c>
       <c r="C27" t="n">
-        <v>1.56935975993022</v>
+        <v>1.38001348134681</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.595200093435706</v>
+        <v>1.566520344529207</v>
       </c>
       <c r="C28" t="n">
-        <v>1.552411509815445</v>
+        <v>1.542991028179137</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.505481010243451</v>
+        <v>1.493905319116509</v>
       </c>
       <c r="C29" t="n">
-        <v>1.45108892461189</v>
+        <v>1.400490790787105</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.608532899651506</v>
+        <v>1.494309949188073</v>
       </c>
       <c r="C30" t="n">
-        <v>1.617548272047592</v>
+        <v>1.369930331993604</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.565736397521498</v>
+        <v>1.307575119562767</v>
       </c>
       <c r="C31" t="n">
-        <v>1.533319966826703</v>
+        <v>1.430493173653666</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.431242727280285</v>
+        <v>1.620974653388373</v>
       </c>
       <c r="C32" t="n">
-        <v>1.461590172301255</v>
+        <v>1.53260523112889</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.427349810477498</v>
+        <v>1.49403575569863</v>
       </c>
       <c r="C33" t="n">
-        <v>1.474911852234172</v>
+        <v>1.581693558355256</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.522034947801174</v>
+        <v>1.513598644858252</v>
       </c>
       <c r="C34" t="n">
-        <v>1.440209851979791</v>
+        <v>1.282321858721176</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.260390110997209</v>
+        <v>1.579173366375915</v>
       </c>
       <c r="C35" t="n">
-        <v>1.538440510366677</v>
+        <v>1.406104736041403</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.460176400940535</v>
+        <v>1.719264946446851</v>
       </c>
       <c r="C36" t="n">
-        <v>1.444516941374901</v>
+        <v>1.432014527061745</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.70159247149964</v>
+        <v>1.607953844115747</v>
       </c>
       <c r="C37" t="n">
-        <v>1.559574234819021</v>
+        <v>1.462498360035502</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.513356998217894</v>
+        <v>1.654035852534333</v>
       </c>
       <c r="C38" t="n">
-        <v>1.429869767491953</v>
+        <v>1.456053786515706</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.401604622077918</v>
+        <v>1.507438621535076</v>
       </c>
       <c r="C39" t="n">
-        <v>1.360996694253143</v>
+        <v>1.546497248996499</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.622813039304496</v>
+        <v>1.470258226152533</v>
       </c>
       <c r="C40" t="n">
-        <v>1.453752344730619</v>
+        <v>1.449799690699623</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.647212570377638</v>
+        <v>1.453058543133082</v>
       </c>
       <c r="C41" t="n">
-        <v>1.308431535200294</v>
+        <v>1.484066124486324</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.53050954424867</v>
+        <v>1.716308193414875</v>
       </c>
       <c r="C42" t="n">
-        <v>1.529684247242467</v>
+        <v>1.393572866455494</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.541411149416344</v>
+        <v>1.610986644526333</v>
       </c>
       <c r="C43" t="n">
-        <v>1.655127543150847</v>
+        <v>1.59335922070702</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.500513888962075</v>
+        <v>1.629317729627434</v>
       </c>
       <c r="C44" t="n">
-        <v>1.460277138003176</v>
+        <v>1.546418836395174</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.663004056127267</v>
+        <v>1.457813014420307</v>
       </c>
       <c r="C45" t="n">
-        <v>1.393789990209042</v>
+        <v>1.508849129291246</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.537210205428874</v>
+        <v>1.478626666428557</v>
       </c>
       <c r="C46" t="n">
-        <v>1.385691021631865</v>
+        <v>1.406474261581321</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.490861126020208</v>
+        <v>1.511373977383113</v>
       </c>
       <c r="C47" t="n">
-        <v>1.699269476758735</v>
+        <v>1.472634960876597</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.567649863780336</v>
+        <v>1.616633723783161</v>
       </c>
       <c r="C48" t="n">
-        <v>1.53482016151157</v>
+        <v>1.366373576516554</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.584726032637341</v>
+        <v>1.626258880498843</v>
       </c>
       <c r="C49" t="n">
-        <v>1.597578282310268</v>
+        <v>1.366774262915452</v>
       </c>
     </row>
     <row r="50">
@@ -978,10 +978,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.58135866539866</v>
+        <v>1.443741242564983</v>
       </c>
       <c r="C50" t="n">
-        <v>1.542554921999395</v>
+        <v>1.38260315562244</v>
       </c>
     </row>
     <row r="51">
@@ -989,10 +989,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.657240220287322</v>
+        <v>1.566447887529777</v>
       </c>
       <c r="C51" t="n">
-        <v>1.559081666892032</v>
+        <v>1.45840477823975</v>
       </c>
     </row>
     <row r="52">
@@ -1000,10 +1000,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.499720407164022</v>
+        <v>1.717224814268959</v>
       </c>
       <c r="C52" t="n">
-        <v>1.509147045803388</v>
+        <v>1.480964487421389</v>
       </c>
     </row>
     <row r="53">
@@ -1011,10 +1011,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.427749956849082</v>
+        <v>1.534880940010808</v>
       </c>
       <c r="C53" t="n">
-        <v>1.335003830651291</v>
+        <v>1.456122907270175</v>
       </c>
     </row>
     <row r="54">
@@ -1022,10 +1022,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.582030646817536</v>
+        <v>1.514741068453275</v>
       </c>
       <c r="C54" t="n">
-        <v>1.57314609199685</v>
+        <v>1.431964694611757</v>
       </c>
     </row>
     <row r="55">
@@ -1033,10 +1033,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.571697987893535</v>
+        <v>1.439925067948762</v>
       </c>
       <c r="C55" t="n">
-        <v>1.573907826304695</v>
+        <v>1.535757909421557</v>
       </c>
     </row>
     <row r="56">
@@ -1044,10 +1044,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.537482206907281</v>
+        <v>1.624657291706039</v>
       </c>
       <c r="C56" t="n">
-        <v>1.607667330896186</v>
+        <v>1.497679396716636</v>
       </c>
     </row>
     <row r="57">
@@ -1055,10 +1055,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.544278754909634</v>
+        <v>1.612646018227717</v>
       </c>
       <c r="C57" t="n">
-        <v>1.508964566047548</v>
+        <v>1.619775308915859</v>
       </c>
     </row>
     <row r="58">
@@ -1066,10 +1066,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.599137586577092</v>
+        <v>1.702679878430121</v>
       </c>
       <c r="C58" t="n">
-        <v>1.428641633817668</v>
+        <v>1.434798266304004</v>
       </c>
     </row>
     <row r="59">
@@ -1077,10 +1077,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.561241969195929</v>
+        <v>1.631704611452464</v>
       </c>
       <c r="C59" t="n">
-        <v>1.337447365299033</v>
+        <v>1.61627784254796</v>
       </c>
     </row>
     <row r="60">
@@ -1088,10 +1088,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.611348657379246</v>
+        <v>1.492912743595361</v>
       </c>
       <c r="C60" t="n">
-        <v>1.385913568152813</v>
+        <v>1.645382180215</v>
       </c>
     </row>
     <row r="61">
@@ -1099,10 +1099,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.565540742381438</v>
+        <v>1.664186878442125</v>
       </c>
       <c r="C61" t="n">
-        <v>1.661532075429235</v>
+        <v>1.553157821237</v>
       </c>
     </row>
     <row r="62">
@@ -1110,10 +1110,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.502822689260122</v>
+        <v>1.608221303007376</v>
       </c>
       <c r="C62" t="n">
-        <v>1.54676421402689</v>
+        <v>1.661531425014314</v>
       </c>
     </row>
     <row r="63">
@@ -1121,10 +1121,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.460987551511327</v>
+        <v>1.532400265088514</v>
       </c>
       <c r="C63" t="n">
-        <v>1.554053636825248</v>
+        <v>1.506173894048559</v>
       </c>
     </row>
     <row r="64">
@@ -1132,10 +1132,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.683228614651579</v>
+        <v>1.513306539590313</v>
       </c>
       <c r="C64" t="n">
-        <v>1.516367582181442</v>
+        <v>1.411221972108479</v>
       </c>
     </row>
     <row r="65">
@@ -1143,10 +1143,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.497840896923396</v>
+        <v>1.595768595773808</v>
       </c>
       <c r="C65" t="n">
-        <v>1.48165951261565</v>
+        <v>1.521989010866737</v>
       </c>
     </row>
     <row r="66">
@@ -1154,10 +1154,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.514738489464894</v>
+        <v>1.685046362628199</v>
       </c>
       <c r="C66" t="n">
-        <v>1.351981439826264</v>
+        <v>1.376222787004787</v>
       </c>
     </row>
     <row r="67">
@@ -1165,10 +1165,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.696728450980795</v>
+        <v>1.549461200604249</v>
       </c>
       <c r="C67" t="n">
-        <v>1.587872979542086</v>
+        <v>1.402278072856848</v>
       </c>
     </row>
     <row r="68">
@@ -1176,10 +1176,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.626162343146577</v>
+        <v>1.392838165572012</v>
       </c>
       <c r="C68" t="n">
-        <v>1.516456194035319</v>
+        <v>1.324018154038713</v>
       </c>
     </row>
     <row r="69">
@@ -1187,10 +1187,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.429339181651118</v>
+        <v>1.573450216005279</v>
       </c>
       <c r="C69" t="n">
-        <v>1.5388090424657</v>
+        <v>1.501855633973045</v>
       </c>
     </row>
     <row r="70">
@@ -1198,10 +1198,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.517963684562598</v>
+        <v>1.462721496046198</v>
       </c>
       <c r="C70" t="n">
-        <v>1.460100996614642</v>
+        <v>1.298238355612578</v>
       </c>
     </row>
     <row r="71">
@@ -1209,10 +1209,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.527884488406235</v>
+        <v>1.471620062932063</v>
       </c>
       <c r="C71" t="n">
-        <v>1.456106103569466</v>
+        <v>1.546193338385568</v>
       </c>
     </row>
     <row r="72">
@@ -1220,10 +1220,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.352533889398542</v>
+        <v>1.51712148350201</v>
       </c>
       <c r="C72" t="n">
-        <v>1.553042454356774</v>
+        <v>1.597885693366861</v>
       </c>
     </row>
     <row r="73">
@@ -1231,10 +1231,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.602105055195682</v>
+        <v>1.646687752461588</v>
       </c>
       <c r="C73" t="n">
-        <v>1.545541454637223</v>
+        <v>1.553731410922987</v>
       </c>
     </row>
     <row r="74">
@@ -1242,10 +1242,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.662834701593239</v>
+        <v>1.537946060829991</v>
       </c>
       <c r="C74" t="n">
-        <v>1.353848694130485</v>
+        <v>1.565648625359525</v>
       </c>
     </row>
     <row r="75">
@@ -1253,10 +1253,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.552062939162371</v>
+        <v>1.601356405350741</v>
       </c>
       <c r="C75" t="n">
-        <v>1.493837126627847</v>
+        <v>1.324594028649674</v>
       </c>
     </row>
     <row r="76">
@@ -1264,10 +1264,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.63644701258532</v>
+        <v>1.737729255741342</v>
       </c>
       <c r="C76" t="n">
-        <v>1.572663136370757</v>
+        <v>1.498995068747681</v>
       </c>
     </row>
     <row r="77">
@@ -1275,10 +1275,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.487821310608496</v>
+        <v>1.478764595095201</v>
       </c>
       <c r="C77" t="n">
-        <v>1.544995763146708</v>
+        <v>1.424419362677875</v>
       </c>
     </row>
     <row r="78">
@@ -1286,10 +1286,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.551519982778968</v>
+        <v>1.549058509334874</v>
       </c>
       <c r="C78" t="n">
-        <v>1.382982286689104</v>
+        <v>1.440229734218385</v>
       </c>
     </row>
     <row r="79">
@@ -1297,10 +1297,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.601094437938157</v>
+        <v>1.497817660385873</v>
       </c>
       <c r="C79" t="n">
-        <v>1.458239772898146</v>
+        <v>1.363973035567825</v>
       </c>
     </row>
     <row r="80">
@@ -1308,10 +1308,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.402978931806618</v>
+        <v>1.632972657348385</v>
       </c>
       <c r="C80" t="n">
-        <v>1.510414212273878</v>
+        <v>1.388019102402305</v>
       </c>
     </row>
     <row r="81">
@@ -1319,10 +1319,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.715946964314522</v>
+        <v>1.640968683575751</v>
       </c>
       <c r="C81" t="n">
-        <v>1.533838347776533</v>
+        <v>1.562304602092403</v>
       </c>
     </row>
     <row r="82">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.50886903430789</v>
+        <v>1.50188987709443</v>
       </c>
       <c r="C82" t="n">
-        <v>1.348235783904196</v>
+        <v>1.568407627633622</v>
       </c>
     </row>
     <row r="83">
@@ -1341,10 +1341,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.598229592553525</v>
+        <v>1.209154570274597</v>
       </c>
       <c r="C83" t="n">
-        <v>1.466451609719682</v>
+        <v>1.543138113597883</v>
       </c>
     </row>
     <row r="84">
@@ -1352,10 +1352,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.522194784827425</v>
+        <v>1.464866701528883</v>
       </c>
       <c r="C84" t="n">
-        <v>1.71837957560679</v>
+        <v>1.536288028304621</v>
       </c>
     </row>
     <row r="85">
@@ -1363,10 +1363,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.6064993306792</v>
+        <v>1.677712350641072</v>
       </c>
       <c r="C85" t="n">
-        <v>1.586632197074648</v>
+        <v>1.482525550604002</v>
       </c>
     </row>
     <row r="86">
@@ -1374,10 +1374,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.588158648982159</v>
+        <v>1.565462517542341</v>
       </c>
       <c r="C86" t="n">
-        <v>1.550712021018004</v>
+        <v>1.506468355619699</v>
       </c>
     </row>
     <row r="87">
@@ -1385,10 +1385,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.417907098108682</v>
+        <v>1.56614145231228</v>
       </c>
       <c r="C87" t="n">
-        <v>1.545411587624642</v>
+        <v>1.467370210972432</v>
       </c>
     </row>
     <row r="88">
@@ -1396,10 +1396,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.677007750737823</v>
+        <v>1.556986443591545</v>
       </c>
       <c r="C88" t="n">
-        <v>1.455155494754996</v>
+        <v>1.57030745982425</v>
       </c>
     </row>
     <row r="89">
@@ -1407,10 +1407,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.534825439681679</v>
+        <v>1.370944634215723</v>
       </c>
       <c r="C89" t="n">
-        <v>1.627164492132334</v>
+        <v>1.419978255796613</v>
       </c>
     </row>
     <row r="90">
@@ -1418,10 +1418,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.513774589680997</v>
+        <v>1.540652399380233</v>
       </c>
       <c r="C90" t="n">
-        <v>1.289917176275177</v>
+        <v>1.410811441202422</v>
       </c>
     </row>
     <row r="91">
@@ -1429,10 +1429,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.683056381868695</v>
+        <v>1.635714257344309</v>
       </c>
       <c r="C91" t="n">
-        <v>1.339718694032724</v>
+        <v>1.425796004393465</v>
       </c>
     </row>
     <row r="92">
@@ -1440,10 +1440,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.52459726764542</v>
+        <v>1.469263291163503</v>
       </c>
       <c r="C92" t="n">
-        <v>1.408893313272805</v>
+        <v>1.467843069848094</v>
       </c>
     </row>
     <row r="93">
@@ -1451,10 +1451,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.57445875495031</v>
+        <v>1.483632543964677</v>
       </c>
       <c r="C93" t="n">
-        <v>1.459798465863798</v>
+        <v>1.641669717562976</v>
       </c>
     </row>
     <row r="94">
@@ -1462,10 +1462,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.600231137641615</v>
+        <v>1.541981618267666</v>
       </c>
       <c r="C94" t="n">
-        <v>1.566352541111078</v>
+        <v>1.677473740038815</v>
       </c>
     </row>
     <row r="95">
@@ -1473,10 +1473,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.594037379075819</v>
+        <v>1.478253381858804</v>
       </c>
       <c r="C95" t="n">
-        <v>1.502422257868394</v>
+        <v>1.547241991161156</v>
       </c>
     </row>
     <row r="96">
@@ -1484,10 +1484,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.687491882924669</v>
+        <v>1.590783098423189</v>
       </c>
       <c r="C96" t="n">
-        <v>1.318821535244855</v>
+        <v>1.533700320245284</v>
       </c>
     </row>
     <row r="97">
@@ -1495,10 +1495,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.674499813610321</v>
+        <v>1.536023903956712</v>
       </c>
       <c r="C97" t="n">
-        <v>1.476272467161818</v>
+        <v>1.611003787907848</v>
       </c>
     </row>
     <row r="98">
@@ -1506,10 +1506,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.413619556559186</v>
+        <v>1.398772915882446</v>
       </c>
       <c r="C98" t="n">
-        <v>1.368840809366132</v>
+        <v>1.58839832181352</v>
       </c>
     </row>
     <row r="99">
@@ -1517,10 +1517,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.438963414719767</v>
+        <v>1.551833232909485</v>
       </c>
       <c r="C99" t="n">
-        <v>1.477264095944001</v>
+        <v>1.62071786279985</v>
       </c>
     </row>
     <row r="100">
@@ -1528,10 +1528,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.503757611379331</v>
+        <v>1.545589993106985</v>
       </c>
       <c r="C100" t="n">
-        <v>1.524931157658167</v>
+        <v>1.385587131773383</v>
       </c>
     </row>
     <row r="101">
@@ -1539,10 +1539,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.534454889096536</v>
+        <v>1.525671802729765</v>
       </c>
       <c r="C101" t="n">
-        <v>1.644930633120076</v>
+        <v>1.4071184779227</v>
       </c>
     </row>
     <row r="102">
@@ -1550,10 +1550,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.563260277231457</v>
+        <v>1.637407808631734</v>
       </c>
       <c r="C102" t="n">
-        <v>1.609590142407408</v>
+        <v>1.691157322304696</v>
       </c>
     </row>
     <row r="103">
@@ -1561,10 +1561,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.381714119863665</v>
+        <v>1.653291738548991</v>
       </c>
       <c r="C103" t="n">
-        <v>1.473650486997948</v>
+        <v>1.45230984559747</v>
       </c>
     </row>
     <row r="104">
@@ -1572,10 +1572,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.550726225448572</v>
+        <v>1.474519599601023</v>
       </c>
       <c r="C104" t="n">
-        <v>1.76364982811863</v>
+        <v>1.532402396625076</v>
       </c>
     </row>
     <row r="105">
@@ -1583,10 +1583,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.300133038724323</v>
+        <v>1.496914068873566</v>
       </c>
       <c r="C105" t="n">
-        <v>1.39339016480705</v>
+        <v>1.537858842831066</v>
       </c>
     </row>
     <row r="106">
@@ -1594,10 +1594,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.538558233925184</v>
+        <v>1.518210594388731</v>
       </c>
       <c r="C106" t="n">
-        <v>1.498705686366902</v>
+        <v>1.624294415107579</v>
       </c>
     </row>
     <row r="107">
@@ -1605,10 +1605,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.487672198683756</v>
+        <v>1.415864118598187</v>
       </c>
       <c r="C107" t="n">
-        <v>1.327930723989619</v>
+        <v>1.638022757798415</v>
       </c>
     </row>
     <row r="108">
@@ -1616,10 +1616,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.356879861922825</v>
+        <v>1.446919402728496</v>
       </c>
       <c r="C108" t="n">
-        <v>1.442374340851392</v>
+        <v>1.546040954044147</v>
       </c>
     </row>
     <row r="109">
@@ -1627,10 +1627,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.593679815823008</v>
+        <v>1.477566602440813</v>
       </c>
       <c r="C109" t="n">
-        <v>1.496520909744608</v>
+        <v>1.590524375062363</v>
       </c>
     </row>
     <row r="110">
@@ -1638,10 +1638,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.591687775248018</v>
+        <v>1.687830729678965</v>
       </c>
       <c r="C110" t="n">
-        <v>1.709986639824149</v>
+        <v>1.524035235381126</v>
       </c>
     </row>
     <row r="111">
@@ -1649,10 +1649,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.58087068757101</v>
+        <v>1.701187712533788</v>
       </c>
       <c r="C111" t="n">
-        <v>1.543214989382582</v>
+        <v>1.544476187080807</v>
       </c>
     </row>
     <row r="112">
@@ -1660,10 +1660,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.651848982443243</v>
+        <v>1.581875234430867</v>
       </c>
       <c r="C112" t="n">
-        <v>1.604476320424626</v>
+        <v>1.454599644630111</v>
       </c>
     </row>
     <row r="113">
@@ -1671,10 +1671,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.460681742207411</v>
+        <v>1.517594055087544</v>
       </c>
       <c r="C113" t="n">
-        <v>1.571801474967036</v>
+        <v>1.465705786061543</v>
       </c>
     </row>
     <row r="114">
@@ -1682,10 +1682,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.624827400890873</v>
+        <v>1.648563321656185</v>
       </c>
       <c r="C114" t="n">
-        <v>1.624795241882086</v>
+        <v>1.476201144093183</v>
       </c>
     </row>
     <row r="115">
@@ -1693,10 +1693,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.600719468747845</v>
+        <v>1.563798903450113</v>
       </c>
       <c r="C115" t="n">
-        <v>1.411737985350896</v>
+        <v>1.468113962937955</v>
       </c>
     </row>
     <row r="116">
@@ -1704,10 +1704,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.313427867827604</v>
+        <v>1.396089414277006</v>
       </c>
       <c r="C116" t="n">
-        <v>1.361996011837816</v>
+        <v>1.562497936173515</v>
       </c>
     </row>
     <row r="117">
@@ -1715,10 +1715,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.654038541578932</v>
+        <v>1.515376325445682</v>
       </c>
       <c r="C117" t="n">
-        <v>1.385168099790853</v>
+        <v>1.403723279159201</v>
       </c>
     </row>
     <row r="118">
@@ -1726,10 +1726,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.617597711635073</v>
+        <v>1.618656267943176</v>
       </c>
       <c r="C118" t="n">
-        <v>1.450443179774945</v>
+        <v>1.625046383417528</v>
       </c>
     </row>
     <row r="119">
@@ -1737,10 +1737,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.564700215492533</v>
+        <v>1.520815298205692</v>
       </c>
       <c r="C119" t="n">
-        <v>1.502319858683194</v>
+        <v>1.572202300148313</v>
       </c>
     </row>
     <row r="120">
@@ -1748,10 +1748,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.376256796470261</v>
+        <v>1.581584488867011</v>
       </c>
       <c r="C120" t="n">
-        <v>1.576928319882712</v>
+        <v>1.427544289679848</v>
       </c>
     </row>
     <row r="121">
@@ -1759,10 +1759,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.5154689915897</v>
+        <v>1.633333574701739</v>
       </c>
       <c r="C121" t="n">
-        <v>1.472224445558457</v>
+        <v>1.513465629139157</v>
       </c>
     </row>
     <row r="122">
@@ -1770,10 +1770,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.63466947187411</v>
+        <v>1.543515970978802</v>
       </c>
       <c r="C122" t="n">
-        <v>1.482640387715424</v>
+        <v>1.406841362013614</v>
       </c>
     </row>
     <row r="123">
@@ -1781,10 +1781,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.427834623825132</v>
+        <v>1.637192154060105</v>
       </c>
       <c r="C123" t="n">
-        <v>1.423361217245614</v>
+        <v>1.428012284592546</v>
       </c>
     </row>
     <row r="124">
@@ -1792,10 +1792,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.514482893281044</v>
+        <v>1.749263947496712</v>
       </c>
       <c r="C124" t="n">
-        <v>1.407211401922037</v>
+        <v>1.457230434109061</v>
       </c>
     </row>
     <row r="125">
@@ -1803,10 +1803,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.585881056505576</v>
+        <v>1.697070598472399</v>
       </c>
       <c r="C125" t="n">
-        <v>1.393553010281553</v>
+        <v>1.565878994071684</v>
       </c>
     </row>
     <row r="126">
@@ -1814,10 +1814,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.482353753730394</v>
+        <v>1.504575582449807</v>
       </c>
       <c r="C126" t="n">
-        <v>1.472545958301174</v>
+        <v>1.560652712095524</v>
       </c>
     </row>
     <row r="127">
@@ -1825,10 +1825,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.532688080429925</v>
+        <v>1.460474684352403</v>
       </c>
       <c r="C127" t="n">
-        <v>1.306290705751932</v>
+        <v>1.376672874465896</v>
       </c>
     </row>
     <row r="128">
@@ -1836,10 +1836,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.599750941259111</v>
+        <v>1.593192076802238</v>
       </c>
       <c r="C128" t="n">
-        <v>1.499826700359852</v>
+        <v>1.474642869670314</v>
       </c>
     </row>
     <row r="129">
@@ -1847,10 +1847,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.402198636968287</v>
+        <v>1.627624569139007</v>
       </c>
       <c r="C129" t="n">
-        <v>1.436902099398541</v>
+        <v>1.623654624087352</v>
       </c>
     </row>
     <row r="130">
@@ -1858,10 +1858,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.541479692232536</v>
+        <v>1.513639327397895</v>
       </c>
       <c r="C130" t="n">
-        <v>1.483254065123902</v>
+        <v>1.415694394722794</v>
       </c>
     </row>
     <row r="131">
@@ -1869,10 +1869,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.59611542500424</v>
+        <v>1.367868160145757</v>
       </c>
       <c r="C131" t="n">
-        <v>1.414504753308508</v>
+        <v>1.349868296855908</v>
       </c>
     </row>
     <row r="132">
@@ -1880,10 +1880,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.611119195868915</v>
+        <v>1.397527199806266</v>
       </c>
       <c r="C132" t="n">
-        <v>1.269484947735434</v>
+        <v>1.511138123183665</v>
       </c>
     </row>
     <row r="133">
@@ -1891,10 +1891,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.568361661416169</v>
+        <v>1.599748811955721</v>
       </c>
       <c r="C133" t="n">
-        <v>1.396458697411725</v>
+        <v>1.368545836752123</v>
       </c>
     </row>
     <row r="134">
@@ -1902,10 +1902,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.646164907718383</v>
+        <v>1.393457520201109</v>
       </c>
       <c r="C134" t="n">
-        <v>1.31944143530245</v>
+        <v>1.402826591447576</v>
       </c>
     </row>
     <row r="135">
@@ -1913,10 +1913,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.521688783563337</v>
+        <v>1.601318268708747</v>
       </c>
       <c r="C135" t="n">
-        <v>1.576627259222077</v>
+        <v>1.534045762907176</v>
       </c>
     </row>
     <row r="136">
@@ -1924,10 +1924,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.551680120026797</v>
+        <v>1.541636759261582</v>
       </c>
       <c r="C136" t="n">
-        <v>1.503169765774751</v>
+        <v>1.737799247937961</v>
       </c>
     </row>
     <row r="137">
@@ -1935,10 +1935,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.572432378578045</v>
+        <v>1.665729506264728</v>
       </c>
       <c r="C137" t="n">
-        <v>1.44762478010127</v>
+        <v>1.656279185522479</v>
       </c>
     </row>
     <row r="138">
@@ -1946,10 +1946,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.523560346201043</v>
+        <v>1.527830261168378</v>
       </c>
       <c r="C138" t="n">
-        <v>1.465940071899085</v>
+        <v>1.413013853998276</v>
       </c>
     </row>
     <row r="139">
@@ -1957,10 +1957,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.549052268617208</v>
+        <v>1.447012280918271</v>
       </c>
       <c r="C139" t="n">
-        <v>1.529238590376522</v>
+        <v>1.466267183333013</v>
       </c>
     </row>
     <row r="140">
@@ -1968,10 +1968,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.531272641451592</v>
+        <v>1.417938768165599</v>
       </c>
       <c r="C140" t="n">
-        <v>1.518293488153338</v>
+        <v>1.615251654412814</v>
       </c>
     </row>
     <row r="141">
@@ -1979,10 +1979,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.534935527694606</v>
+        <v>1.560492695391479</v>
       </c>
       <c r="C141" t="n">
-        <v>1.424350803927819</v>
+        <v>1.420238961591739</v>
       </c>
     </row>
     <row r="142">
@@ -1990,10 +1990,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.535102839990086</v>
+        <v>1.570323989834089</v>
       </c>
       <c r="C142" t="n">
-        <v>1.384161222450656</v>
+        <v>1.429244770047359</v>
       </c>
     </row>
     <row r="143">
@@ -2001,10 +2001,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.557351424495071</v>
+        <v>1.536617758652726</v>
       </c>
       <c r="C143" t="n">
-        <v>1.183600898101843</v>
+        <v>1.433132658847759</v>
       </c>
     </row>
     <row r="144">
@@ -2012,10 +2012,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.629534474126552</v>
+        <v>1.406240272764928</v>
       </c>
       <c r="C144" t="n">
-        <v>1.507872638706858</v>
+        <v>1.582013950450387</v>
       </c>
     </row>
     <row r="145">
@@ -2023,10 +2023,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.598782368402341</v>
+        <v>1.584755235005294</v>
       </c>
       <c r="C145" t="n">
-        <v>1.689701299117389</v>
+        <v>1.512677590127277</v>
       </c>
     </row>
     <row r="146">
@@ -2034,10 +2034,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.543397783306769</v>
+        <v>1.531003308419739</v>
       </c>
       <c r="C146" t="n">
-        <v>1.604480951538705</v>
+        <v>1.542309488052859</v>
       </c>
     </row>
     <row r="147">
@@ -2045,10 +2045,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.577608124820286</v>
+        <v>1.497208828789138</v>
       </c>
       <c r="C147" t="n">
-        <v>1.349269773703499</v>
+        <v>1.490207093896633</v>
       </c>
     </row>
     <row r="148">
@@ -2056,10 +2056,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.692612318699004</v>
+        <v>1.476150758959894</v>
       </c>
       <c r="C148" t="n">
-        <v>1.571501968229742</v>
+        <v>1.542876963118121</v>
       </c>
     </row>
     <row r="149">
@@ -2067,10 +2067,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.700562347579818</v>
+        <v>1.474956696539715</v>
       </c>
       <c r="C149" t="n">
-        <v>1.483608284712707</v>
+        <v>1.489429011355995</v>
       </c>
     </row>
     <row r="150">
@@ -2078,10 +2078,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.554756285704193</v>
+        <v>1.552885574578734</v>
       </c>
       <c r="C150" t="n">
-        <v>1.534421981112697</v>
+        <v>1.412200076255218</v>
       </c>
     </row>
     <row r="151">
@@ -2089,10 +2089,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.662567339785848</v>
+        <v>1.550027441675226</v>
       </c>
       <c r="C151" t="n">
-        <v>1.652175136728544</v>
+        <v>1.615879178679336</v>
       </c>
     </row>
     <row r="152">
@@ -2100,10 +2100,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.622796752182372</v>
+        <v>1.565485384495537</v>
       </c>
       <c r="C152" t="n">
-        <v>1.563130575221181</v>
+        <v>1.502478018713076</v>
       </c>
     </row>
     <row r="153">
@@ -2111,10 +2111,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.659526348404907</v>
+        <v>1.607704861239928</v>
       </c>
       <c r="C153" t="n">
-        <v>1.529924222012567</v>
+        <v>1.586923155292202</v>
       </c>
     </row>
     <row r="154">
@@ -2122,10 +2122,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.578868057663833</v>
+        <v>1.639127949688872</v>
       </c>
       <c r="C154" t="n">
-        <v>1.527173591999321</v>
+        <v>1.573342236987339</v>
       </c>
     </row>
     <row r="155">
@@ -2133,10 +2133,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.56318571517161</v>
+        <v>1.498786682968919</v>
       </c>
       <c r="C155" t="n">
-        <v>1.307579780740593</v>
+        <v>1.570865377092323</v>
       </c>
     </row>
     <row r="156">
@@ -2144,10 +2144,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.52877045331724</v>
+        <v>1.475088657229996</v>
       </c>
       <c r="C156" t="n">
-        <v>1.458888039694404</v>
+        <v>1.363508540760904</v>
       </c>
     </row>
     <row r="157">
@@ -2155,10 +2155,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.602182159305572</v>
+        <v>1.550932863179032</v>
       </c>
       <c r="C157" t="n">
-        <v>1.485358088620761</v>
+        <v>1.502867148485083</v>
       </c>
     </row>
     <row r="158">
@@ -2166,10 +2166,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.546589099471565</v>
+        <v>1.620077504365151</v>
       </c>
       <c r="C158" t="n">
-        <v>1.39936474255777</v>
+        <v>1.53146024674965</v>
       </c>
     </row>
   </sheetData>

--- a/data/origin/fuel.xlsx
+++ b/data/origin/fuel.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.417536761259519</v>
+        <v>1.499610369021908</v>
       </c>
       <c r="C2" t="n">
-        <v>1.387763560749361</v>
+        <v>1.497471891346812</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.487517948405626</v>
+        <v>1.53860808140129</v>
       </c>
       <c r="C3" t="n">
-        <v>1.600014992651908</v>
+        <v>1.468728023510456</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.749848778729412</v>
+        <v>1.484160069754754</v>
       </c>
       <c r="C4" t="n">
-        <v>1.445129754830726</v>
+        <v>1.474988398838089</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.600680535078699</v>
+        <v>1.45070685340462</v>
       </c>
       <c r="C5" t="n">
-        <v>1.565222820569148</v>
+        <v>1.500681976461159</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.667905524986182</v>
+        <v>1.517290151618968</v>
       </c>
       <c r="C6" t="n">
-        <v>1.576072073593216</v>
+        <v>1.499270552948359</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.533552043837033</v>
+        <v>1.56555524076953</v>
       </c>
       <c r="C7" t="n">
-        <v>1.491266542898457</v>
+        <v>1.43032259393274</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.694155005859374</v>
+        <v>1.51854097950069</v>
       </c>
       <c r="C8" t="n">
-        <v>1.466363119364712</v>
+        <v>1.519153915122528</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.597792492465556</v>
+        <v>1.534550899631474</v>
       </c>
       <c r="C9" t="n">
-        <v>1.584878018373057</v>
+        <v>1.496600762684054</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.614456472859469</v>
+        <v>1.45337995029633</v>
       </c>
       <c r="C10" t="n">
-        <v>1.538283327967656</v>
+        <v>1.470970547638207</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.767269508610895</v>
+        <v>1.513313892437807</v>
       </c>
       <c r="C11" t="n">
-        <v>1.531940411401466</v>
+        <v>1.457528956078869</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.769068774308107</v>
+        <v>1.517222771575642</v>
       </c>
       <c r="C12" t="n">
-        <v>1.546814822090564</v>
+        <v>1.40483442548993</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.464446725218298</v>
+        <v>1.476302560879753</v>
       </c>
       <c r="C13" t="n">
-        <v>1.449094724433857</v>
+        <v>1.455955655168077</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.451816837306524</v>
+        <v>1.494914132643907</v>
       </c>
       <c r="C14" t="n">
-        <v>1.302521810815292</v>
+        <v>1.401842855116957</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.639508148164091</v>
+        <v>1.552880432965622</v>
       </c>
       <c r="C15" t="n">
-        <v>1.37165813413664</v>
+        <v>1.478128909498096</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.455595463748326</v>
+        <v>1.434761282192389</v>
       </c>
       <c r="C16" t="n">
-        <v>1.762525639651659</v>
+        <v>1.490273976483227</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.570952079158571</v>
+        <v>1.577874546812474</v>
       </c>
       <c r="C17" t="n">
-        <v>1.33947886005827</v>
+        <v>1.4603057874623</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.757471361423333</v>
+        <v>1.598417528086911</v>
       </c>
       <c r="C18" t="n">
-        <v>1.454367762844157</v>
+        <v>1.512985592163485</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.271825231248996</v>
+        <v>1.540771818978863</v>
       </c>
       <c r="C19" t="n">
-        <v>1.551253461030605</v>
+        <v>1.48494882490628</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.463496250474586</v>
+        <v>1.489151935023812</v>
       </c>
       <c r="C20" t="n">
-        <v>1.580743865745955</v>
+        <v>1.541363497505696</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.624310557657431</v>
+        <v>1.521360476456937</v>
       </c>
       <c r="C21" t="n">
-        <v>1.627142253409851</v>
+        <v>1.511913354463407</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.754465896030747</v>
+        <v>1.461648289012955</v>
       </c>
       <c r="C22" t="n">
-        <v>1.600677326900829</v>
+        <v>1.48726366046714</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.445670477022046</v>
+        <v>1.477352312399101</v>
       </c>
       <c r="C23" t="n">
-        <v>1.400279661335945</v>
+        <v>1.438549420745122</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.582197447677054</v>
+        <v>1.434412655034444</v>
       </c>
       <c r="C24" t="n">
-        <v>1.4012964704435</v>
+        <v>1.49032152414702</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.614165597155182</v>
+        <v>1.502909650917752</v>
       </c>
       <c r="C25" t="n">
-        <v>1.553985382394949</v>
+        <v>1.495794449111095</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.546781631048924</v>
+        <v>1.467701646359366</v>
       </c>
       <c r="C26" t="n">
-        <v>1.536017058108738</v>
+        <v>1.475609318751173</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.471139652422595</v>
+        <v>1.461688600170563</v>
       </c>
       <c r="C27" t="n">
-        <v>1.38001348134681</v>
+        <v>1.482731764678653</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.566520344529207</v>
+        <v>1.509516872503898</v>
       </c>
       <c r="C28" t="n">
-        <v>1.542991028179137</v>
+        <v>1.519087715058284</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.493905319116509</v>
+        <v>1.484347058918165</v>
       </c>
       <c r="C29" t="n">
-        <v>1.400490790787105</v>
+        <v>1.44668200298372</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.494309949188073</v>
+        <v>1.389186969626348</v>
       </c>
       <c r="C30" t="n">
-        <v>1.369930331993604</v>
+        <v>1.448371240272492</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.307575119562767</v>
+        <v>1.543948124842317</v>
       </c>
       <c r="C31" t="n">
-        <v>1.430493173653666</v>
+        <v>1.489774418118746</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.620974653388373</v>
+        <v>1.448703794020307</v>
       </c>
       <c r="C32" t="n">
-        <v>1.53260523112889</v>
+        <v>1.521643183282788</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.49403575569863</v>
+        <v>1.502014441128118</v>
       </c>
       <c r="C33" t="n">
-        <v>1.581693558355256</v>
+        <v>1.462477926424262</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.513598644858252</v>
+        <v>1.554138567072858</v>
       </c>
       <c r="C34" t="n">
-        <v>1.282321858721176</v>
+        <v>1.548189852335762</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.579173366375915</v>
+        <v>1.493048785029547</v>
       </c>
       <c r="C35" t="n">
-        <v>1.406104736041403</v>
+        <v>1.547333896023552</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.719264946446851</v>
+        <v>1.484496540198008</v>
       </c>
       <c r="C36" t="n">
-        <v>1.432014527061745</v>
+        <v>1.39455764110401</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.607953844115747</v>
+        <v>1.605291192807419</v>
       </c>
       <c r="C37" t="n">
-        <v>1.462498360035502</v>
+        <v>1.486425524013768</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.654035852534333</v>
+        <v>1.4721257035018</v>
       </c>
       <c r="C38" t="n">
-        <v>1.456053786515706</v>
+        <v>1.458721259643567</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.507438621535076</v>
+        <v>1.473483346410949</v>
       </c>
       <c r="C39" t="n">
-        <v>1.546497248996499</v>
+        <v>1.465376039496019</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.470258226152533</v>
+        <v>1.509686452748114</v>
       </c>
       <c r="C40" t="n">
-        <v>1.449799690699623</v>
+        <v>1.427518013533407</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.453058543133082</v>
+        <v>1.596300743956907</v>
       </c>
       <c r="C41" t="n">
-        <v>1.484066124486324</v>
+        <v>1.51820445303743</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.716308193414875</v>
+        <v>1.497523034147355</v>
       </c>
       <c r="C42" t="n">
-        <v>1.393572866455494</v>
+        <v>1.419102581564709</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.610986644526333</v>
+        <v>1.497257392970176</v>
       </c>
       <c r="C43" t="n">
-        <v>1.59335922070702</v>
+        <v>1.513046068593786</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.629317729627434</v>
+        <v>1.485206894719146</v>
       </c>
       <c r="C44" t="n">
-        <v>1.546418836395174</v>
+        <v>1.487604542447593</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.457813014420307</v>
+        <v>1.524697232069552</v>
       </c>
       <c r="C45" t="n">
-        <v>1.508849129291246</v>
+        <v>1.411521461155921</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.478626666428557</v>
+        <v>1.517334716517863</v>
       </c>
       <c r="C46" t="n">
-        <v>1.406474261581321</v>
+        <v>1.448062571321187</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.511373977383113</v>
+        <v>1.488178894147242</v>
       </c>
       <c r="C47" t="n">
-        <v>1.472634960876597</v>
+        <v>1.593269874773427</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.616633723783161</v>
+        <v>1.509182735012806</v>
       </c>
       <c r="C48" t="n">
-        <v>1.366373576516554</v>
+        <v>1.482784723663398</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.626258880498843</v>
+        <v>1.433129131613445</v>
       </c>
       <c r="C49" t="n">
-        <v>1.366774262915452</v>
+        <v>1.440026412007757</v>
       </c>
     </row>
     <row r="50">
@@ -978,10 +978,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.443741242564983</v>
+        <v>1.413079728152993</v>
       </c>
       <c r="C50" t="n">
-        <v>1.38260315562244</v>
+        <v>1.53278075621734</v>
       </c>
     </row>
     <row r="51">
@@ -989,10 +989,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.566447887529777</v>
+        <v>1.575848183645144</v>
       </c>
       <c r="C51" t="n">
-        <v>1.45840477823975</v>
+        <v>1.507931571798697</v>
       </c>
     </row>
     <row r="52">
@@ -1000,10 +1000,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.717224814268959</v>
+        <v>1.550358273493516</v>
       </c>
       <c r="C52" t="n">
-        <v>1.480964487421389</v>
+        <v>1.547762436619943</v>
       </c>
     </row>
     <row r="53">
@@ -1011,10 +1011,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.534880940010808</v>
+        <v>1.42263645813611</v>
       </c>
       <c r="C53" t="n">
-        <v>1.456122907270175</v>
+        <v>1.492006797104121</v>
       </c>
     </row>
     <row r="54">
@@ -1022,10 +1022,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.514741068453275</v>
+        <v>1.566427914111693</v>
       </c>
       <c r="C54" t="n">
-        <v>1.431964694611757</v>
+        <v>1.509864397584903</v>
       </c>
     </row>
     <row r="55">
@@ -1033,10 +1033,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.439925067948762</v>
+        <v>1.416961547545858</v>
       </c>
       <c r="C55" t="n">
-        <v>1.535757909421557</v>
+        <v>1.44523163241809</v>
       </c>
     </row>
     <row r="56">
@@ -1044,10 +1044,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.624657291706039</v>
+        <v>1.594653977380804</v>
       </c>
       <c r="C56" t="n">
-        <v>1.497679396716636</v>
+        <v>1.437248063607184</v>
       </c>
     </row>
     <row r="57">
@@ -1055,10 +1055,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.612646018227717</v>
+        <v>1.443685766983844</v>
       </c>
       <c r="C57" t="n">
-        <v>1.619775308915859</v>
+        <v>1.408591659530565</v>
       </c>
     </row>
     <row r="58">
@@ -1066,10 +1066,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.702679878430121</v>
+        <v>1.518297176168443</v>
       </c>
       <c r="C58" t="n">
-        <v>1.434798266304004</v>
+        <v>1.485274698861331</v>
       </c>
     </row>
     <row r="59">
@@ -1077,10 +1077,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.631704611452464</v>
+        <v>1.483094866850002</v>
       </c>
       <c r="C59" t="n">
-        <v>1.61627784254796</v>
+        <v>1.513759974037165</v>
       </c>
     </row>
     <row r="60">
@@ -1088,10 +1088,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.492912743595361</v>
+        <v>1.423705860420159</v>
       </c>
       <c r="C60" t="n">
-        <v>1.645382180215</v>
+        <v>1.389596799990511</v>
       </c>
     </row>
     <row r="61">
@@ -1099,10 +1099,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.664186878442125</v>
+        <v>1.439436165573737</v>
       </c>
       <c r="C61" t="n">
-        <v>1.553157821237</v>
+        <v>1.495940229727179</v>
       </c>
     </row>
     <row r="62">
@@ -1110,10 +1110,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.608221303007376</v>
+        <v>1.48234261906119</v>
       </c>
       <c r="C62" t="n">
-        <v>1.661531425014314</v>
+        <v>1.421893111735801</v>
       </c>
     </row>
     <row r="63">
@@ -1121,10 +1121,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.532400265088514</v>
+        <v>1.565857693175058</v>
       </c>
       <c r="C63" t="n">
-        <v>1.506173894048559</v>
+        <v>1.46621570256187</v>
       </c>
     </row>
     <row r="64">
@@ -1132,10 +1132,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.513306539590313</v>
+        <v>1.432132905278162</v>
       </c>
       <c r="C64" t="n">
-        <v>1.411221972108479</v>
+        <v>1.510191770557347</v>
       </c>
     </row>
     <row r="65">
@@ -1143,10 +1143,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.595768595773808</v>
+        <v>1.416802936502275</v>
       </c>
       <c r="C65" t="n">
-        <v>1.521989010866737</v>
+        <v>1.473291468062939</v>
       </c>
     </row>
     <row r="66">
@@ -1154,10 +1154,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.685046362628199</v>
+        <v>1.424412117812333</v>
       </c>
       <c r="C66" t="n">
-        <v>1.376222787004787</v>
+        <v>1.445287718447999</v>
       </c>
     </row>
     <row r="67">
@@ -1165,10 +1165,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.549461200604249</v>
+        <v>1.519671258474137</v>
       </c>
       <c r="C67" t="n">
-        <v>1.402278072856848</v>
+        <v>1.533976934087268</v>
       </c>
     </row>
     <row r="68">
@@ -1176,10 +1176,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.392838165572012</v>
+        <v>1.407777103849165</v>
       </c>
       <c r="C68" t="n">
-        <v>1.324018154038713</v>
+        <v>1.448450688723116</v>
       </c>
     </row>
     <row r="69">
@@ -1187,10 +1187,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.573450216005279</v>
+        <v>1.529700078530207</v>
       </c>
       <c r="C69" t="n">
-        <v>1.501855633973045</v>
+        <v>1.390841543873822</v>
       </c>
     </row>
     <row r="70">
@@ -1198,10 +1198,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.462721496046198</v>
+        <v>1.495699027459891</v>
       </c>
       <c r="C70" t="n">
-        <v>1.298238355612578</v>
+        <v>1.45369784626207</v>
       </c>
     </row>
     <row r="71">
@@ -1209,10 +1209,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.471620062932063</v>
+        <v>1.416361827416677</v>
       </c>
       <c r="C71" t="n">
-        <v>1.546193338385568</v>
+        <v>1.440205875958677</v>
       </c>
     </row>
     <row r="72">
@@ -1220,10 +1220,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.51712148350201</v>
+        <v>1.489736720061102</v>
       </c>
       <c r="C72" t="n">
-        <v>1.597885693366861</v>
+        <v>1.481333249631614</v>
       </c>
     </row>
     <row r="73">
@@ -1231,10 +1231,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.646687752461588</v>
+        <v>1.547604774260616</v>
       </c>
       <c r="C73" t="n">
-        <v>1.553731410922987</v>
+        <v>1.462378980400668</v>
       </c>
     </row>
     <row r="74">
@@ -1242,10 +1242,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.537946060829991</v>
+        <v>1.476715187387669</v>
       </c>
       <c r="C74" t="n">
-        <v>1.565648625359525</v>
+        <v>1.479410112253105</v>
       </c>
     </row>
     <row r="75">
@@ -1253,10 +1253,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.601356405350741</v>
+        <v>1.439314251060408</v>
       </c>
       <c r="C75" t="n">
-        <v>1.324594028649674</v>
+        <v>1.420325815614853</v>
       </c>
     </row>
     <row r="76">
@@ -1264,10 +1264,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.737729255741342</v>
+        <v>1.430019420084485</v>
       </c>
       <c r="C76" t="n">
-        <v>1.498995068747681</v>
+        <v>1.405029018236412</v>
       </c>
     </row>
     <row r="77">
@@ -1275,10 +1275,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.478764595095201</v>
+        <v>1.572002046936824</v>
       </c>
       <c r="C77" t="n">
-        <v>1.424419362677875</v>
+        <v>1.501745621186253</v>
       </c>
     </row>
     <row r="78">
@@ -1286,10 +1286,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.549058509334874</v>
+        <v>1.503806985324359</v>
       </c>
       <c r="C78" t="n">
-        <v>1.440229734218385</v>
+        <v>1.443200591194034</v>
       </c>
     </row>
     <row r="79">
@@ -1297,10 +1297,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.497817660385873</v>
+        <v>1.480986909315363</v>
       </c>
       <c r="C79" t="n">
-        <v>1.363973035567825</v>
+        <v>1.426827485928465</v>
       </c>
     </row>
     <row r="80">
@@ -1308,10 +1308,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.632972657348385</v>
+        <v>1.537745168532403</v>
       </c>
       <c r="C80" t="n">
-        <v>1.388019102402305</v>
+        <v>1.429313333545985</v>
       </c>
     </row>
     <row r="81">
@@ -1319,10 +1319,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.640968683575751</v>
+        <v>1.5236230991286</v>
       </c>
       <c r="C81" t="n">
-        <v>1.562304602092403</v>
+        <v>1.470679350059747</v>
       </c>
     </row>
     <row r="82">
@@ -1330,10 +1330,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.50188987709443</v>
+        <v>1.469967780903618</v>
       </c>
       <c r="C82" t="n">
-        <v>1.568407627633622</v>
+        <v>1.510324151279092</v>
       </c>
     </row>
     <row r="83">
@@ -1341,10 +1341,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.209154570274597</v>
+        <v>1.461247832921616</v>
       </c>
       <c r="C83" t="n">
-        <v>1.543138113597883</v>
+        <v>1.433164711464125</v>
       </c>
     </row>
     <row r="84">
@@ -1352,10 +1352,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.464866701528883</v>
+        <v>1.51877831716425</v>
       </c>
       <c r="C84" t="n">
-        <v>1.536288028304621</v>
+        <v>1.549090674907178</v>
       </c>
     </row>
     <row r="85">
@@ -1363,10 +1363,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.677712350641072</v>
+        <v>1.56364979189452</v>
       </c>
       <c r="C85" t="n">
-        <v>1.482525550604002</v>
+        <v>1.456115359677085</v>
       </c>
     </row>
     <row r="86">
@@ -1374,10 +1374,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.565462517542341</v>
+        <v>1.545080736860163</v>
       </c>
       <c r="C86" t="n">
-        <v>1.506468355619699</v>
+        <v>1.447028646945051</v>
       </c>
     </row>
     <row r="87">
@@ -1385,10 +1385,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.56614145231228</v>
+        <v>1.554417311079454</v>
       </c>
       <c r="C87" t="n">
-        <v>1.467370210972432</v>
+        <v>1.583850015012603</v>
       </c>
     </row>
     <row r="88">
@@ -1396,10 +1396,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.556986443591545</v>
+        <v>1.471176439506861</v>
       </c>
       <c r="C88" t="n">
-        <v>1.57030745982425</v>
+        <v>1.494757577794239</v>
       </c>
     </row>
     <row r="89">
@@ -1407,10 +1407,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.370944634215723</v>
+        <v>1.546938390871545</v>
       </c>
       <c r="C89" t="n">
-        <v>1.419978255796613</v>
+        <v>1.460165112911919</v>
       </c>
     </row>
     <row r="90">
@@ -1418,10 +1418,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.540652399380233</v>
+        <v>1.473843665066099</v>
       </c>
       <c r="C90" t="n">
-        <v>1.410811441202422</v>
+        <v>1.470575767918994</v>
       </c>
     </row>
     <row r="91">
@@ -1429,10 +1429,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.635714257344309</v>
+        <v>1.486874805559133</v>
       </c>
       <c r="C91" t="n">
-        <v>1.425796004393465</v>
+        <v>1.524093525289706</v>
       </c>
     </row>
     <row r="92">
@@ -1440,10 +1440,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.469263291163503</v>
+        <v>1.539668437315779</v>
       </c>
       <c r="C92" t="n">
-        <v>1.467843069848094</v>
+        <v>1.508743124560065</v>
       </c>
     </row>
     <row r="93">
@@ -1451,10 +1451,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.483632543964677</v>
+        <v>1.493518733110435</v>
       </c>
       <c r="C93" t="n">
-        <v>1.641669717562976</v>
+        <v>1.432256337265695</v>
       </c>
     </row>
     <row r="94">
@@ -1462,10 +1462,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.541981618267666</v>
+        <v>1.457292770413954</v>
       </c>
       <c r="C94" t="n">
-        <v>1.677473740038815</v>
+        <v>1.507558578281567</v>
       </c>
     </row>
     <row r="95">
@@ -1473,10 +1473,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.478253381858804</v>
+        <v>1.440797803335481</v>
       </c>
       <c r="C95" t="n">
-        <v>1.547241991161156</v>
+        <v>1.446481845330141</v>
       </c>
     </row>
     <row r="96">
@@ -1484,10 +1484,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.590783098423189</v>
+        <v>1.4891547159593</v>
       </c>
       <c r="C96" t="n">
-        <v>1.533700320245284</v>
+        <v>1.466564741242719</v>
       </c>
     </row>
     <row r="97">
@@ -1495,10 +1495,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.536023903956712</v>
+        <v>1.526733725255146</v>
       </c>
       <c r="C97" t="n">
-        <v>1.611003787907848</v>
+        <v>1.44878378145118</v>
       </c>
     </row>
     <row r="98">
@@ -1506,10 +1506,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.398772915882446</v>
+        <v>1.46484222069613</v>
       </c>
       <c r="C98" t="n">
-        <v>1.58839832181352</v>
+        <v>1.500981381055815</v>
       </c>
     </row>
     <row r="99">
@@ -1517,10 +1517,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.551833232909485</v>
+        <v>1.597528524650451</v>
       </c>
       <c r="C99" t="n">
-        <v>1.62071786279985</v>
+        <v>1.439213332037058</v>
       </c>
     </row>
     <row r="100">
@@ -1528,10 +1528,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.545589993106985</v>
+        <v>1.599312861568221</v>
       </c>
       <c r="C100" t="n">
-        <v>1.385587131773383</v>
+        <v>1.613590857834981</v>
       </c>
     </row>
     <row r="101">
@@ -1539,10 +1539,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.525671802729765</v>
+        <v>1.49834450380909</v>
       </c>
       <c r="C101" t="n">
-        <v>1.4071184779227</v>
+        <v>1.503496131761353</v>
       </c>
     </row>
     <row r="102">
@@ -1550,10 +1550,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.637407808631734</v>
+        <v>1.518520080911462</v>
       </c>
       <c r="C102" t="n">
-        <v>1.691157322304696</v>
+        <v>1.49895964149668</v>
       </c>
     </row>
     <row r="103">
@@ -1561,10 +1561,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.653291738548991</v>
+        <v>1.47482188022852</v>
       </c>
       <c r="C103" t="n">
-        <v>1.45230984559747</v>
+        <v>1.493003986632869</v>
       </c>
     </row>
     <row r="104">
@@ -1572,10 +1572,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.474519599601023</v>
+        <v>1.502110572959907</v>
       </c>
       <c r="C104" t="n">
-        <v>1.532402396625076</v>
+        <v>1.500171926433867</v>
       </c>
     </row>
     <row r="105">
@@ -1583,10 +1583,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.496914068873566</v>
+        <v>1.461462499214364</v>
       </c>
       <c r="C105" t="n">
-        <v>1.537858842831066</v>
+        <v>1.492951610542571</v>
       </c>
     </row>
     <row r="106">
@@ -1594,10 +1594,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.518210594388731</v>
+        <v>1.53217523267273</v>
       </c>
       <c r="C106" t="n">
-        <v>1.624294415107579</v>
+        <v>1.448613013633758</v>
       </c>
     </row>
     <row r="107">
@@ -1605,10 +1605,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.415864118598187</v>
+        <v>1.403829185384477</v>
       </c>
       <c r="C107" t="n">
-        <v>1.638022757798415</v>
+        <v>1.562132408554942</v>
       </c>
     </row>
     <row r="108">
@@ -1616,10 +1616,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.446919402728496</v>
+        <v>1.480791629010541</v>
       </c>
       <c r="C108" t="n">
-        <v>1.546040954044147</v>
+        <v>1.543826573020167</v>
       </c>
     </row>
     <row r="109">
@@ -1627,10 +1627,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.477566602440813</v>
+        <v>1.543688891231577</v>
       </c>
       <c r="C109" t="n">
-        <v>1.590524375062363</v>
+        <v>1.461715151980126</v>
       </c>
     </row>
     <row r="110">
@@ -1638,10 +1638,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.687830729678965</v>
+        <v>1.438010103210656</v>
       </c>
       <c r="C110" t="n">
-        <v>1.524035235381126</v>
+        <v>1.441687961116296</v>
       </c>
     </row>
     <row r="111">
@@ -1649,10 +1649,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.701187712533788</v>
+        <v>1.53115981405048</v>
       </c>
       <c r="C111" t="n">
-        <v>1.544476187080807</v>
+        <v>1.503462733313741</v>
       </c>
     </row>
     <row r="112">
@@ -1660,10 +1660,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.581875234430867</v>
+        <v>1.476454721357442</v>
       </c>
       <c r="C112" t="n">
-        <v>1.454599644630111</v>
+        <v>1.524792503939478</v>
       </c>
     </row>
     <row r="113">
@@ -1671,10 +1671,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.517594055087544</v>
+        <v>1.512235447140726</v>
       </c>
       <c r="C113" t="n">
-        <v>1.465705786061543</v>
+        <v>1.49764808545279</v>
       </c>
     </row>
     <row r="114">
@@ -1682,10 +1682,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.648563321656185</v>
+        <v>1.523994246389068</v>
       </c>
       <c r="C114" t="n">
-        <v>1.476201144093183</v>
+        <v>1.47165836897845</v>
       </c>
     </row>
     <row r="115">
@@ -1693,10 +1693,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.563798903450113</v>
+        <v>1.411619184850733</v>
       </c>
       <c r="C115" t="n">
-        <v>1.468113962937955</v>
+        <v>1.487094973247573</v>
       </c>
     </row>
     <row r="116">
@@ -1704,10 +1704,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.396089414277006</v>
+        <v>1.466700640093234</v>
       </c>
       <c r="C116" t="n">
-        <v>1.562497936173515</v>
+        <v>1.441018199096964</v>
       </c>
     </row>
     <row r="117">
@@ -1715,10 +1715,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.515376325445682</v>
+        <v>1.550257243453111</v>
       </c>
       <c r="C117" t="n">
-        <v>1.403723279159201</v>
+        <v>1.571389420872933</v>
       </c>
     </row>
     <row r="118">
@@ -1726,10 +1726,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.618656267943176</v>
+        <v>1.515535877577918</v>
       </c>
       <c r="C118" t="n">
-        <v>1.625046383417528</v>
+        <v>1.44049893968598</v>
       </c>
     </row>
     <row r="119">
@@ -1737,10 +1737,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.520815298205692</v>
+        <v>1.535845627771336</v>
       </c>
       <c r="C119" t="n">
-        <v>1.572202300148313</v>
+        <v>1.515261865848064</v>
       </c>
     </row>
     <row r="120">
@@ -1748,10 +1748,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.581584488867011</v>
+        <v>1.474546183301582</v>
       </c>
       <c r="C120" t="n">
-        <v>1.427544289679848</v>
+        <v>1.495499159013406</v>
       </c>
     </row>
     <row r="121">
@@ -1759,10 +1759,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.633333574701739</v>
+        <v>1.443827111498845</v>
       </c>
       <c r="C121" t="n">
-        <v>1.513465629139157</v>
+        <v>1.498149637837098</v>
       </c>
     </row>
     <row r="122">
@@ -1770,10 +1770,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.543515970978802</v>
+        <v>1.547328327405113</v>
       </c>
       <c r="C122" t="n">
-        <v>1.406841362013614</v>
+        <v>1.430203428047302</v>
       </c>
     </row>
     <row r="123">
@@ -1781,10 +1781,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.637192154060105</v>
+        <v>1.433766301971575</v>
       </c>
       <c r="C123" t="n">
-        <v>1.428012284592546</v>
+        <v>1.440577425444055</v>
       </c>
     </row>
     <row r="124">
@@ -1792,10 +1792,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.749263947496712</v>
+        <v>1.517921793879648</v>
       </c>
       <c r="C124" t="n">
-        <v>1.457230434109061</v>
+        <v>1.43547683583446</v>
       </c>
     </row>
     <row r="125">
@@ -1803,10 +1803,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.697070598472399</v>
+        <v>1.447416447560502</v>
       </c>
       <c r="C125" t="n">
-        <v>1.565878994071684</v>
+        <v>1.514612925189774</v>
       </c>
     </row>
     <row r="126">
@@ -1814,10 +1814,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.504575582449807</v>
+        <v>1.485396554436803</v>
       </c>
       <c r="C126" t="n">
-        <v>1.560652712095524</v>
+        <v>1.467280773905074</v>
       </c>
     </row>
     <row r="127">
@@ -1825,10 +1825,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.460474684352403</v>
+        <v>1.563585662805931</v>
       </c>
       <c r="C127" t="n">
-        <v>1.376672874465896</v>
+        <v>1.530320861424573</v>
       </c>
     </row>
     <row r="128">
@@ -1836,10 +1836,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.593192076802238</v>
+        <v>1.424852240852434</v>
       </c>
       <c r="C128" t="n">
-        <v>1.474642869670314</v>
+        <v>1.476324943508579</v>
       </c>
     </row>
     <row r="129">
@@ -1847,10 +1847,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.627624569139007</v>
+        <v>1.430983250973614</v>
       </c>
       <c r="C129" t="n">
-        <v>1.623654624087352</v>
+        <v>1.437498610492309</v>
       </c>
     </row>
     <row r="130">
@@ -1858,10 +1858,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.513639327397895</v>
+        <v>1.497069178528514</v>
       </c>
       <c r="C130" t="n">
-        <v>1.415694394722794</v>
+        <v>1.405598801080176</v>
       </c>
     </row>
     <row r="131">
@@ -1869,10 +1869,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.367868160145757</v>
+        <v>1.449292963939593</v>
       </c>
       <c r="C131" t="n">
-        <v>1.349868296855908</v>
+        <v>1.512327639426357</v>
       </c>
     </row>
     <row r="132">
@@ -1880,10 +1880,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.397527199806266</v>
+        <v>1.499113770332752</v>
       </c>
       <c r="C132" t="n">
-        <v>1.511138123183665</v>
+        <v>1.52648876597391</v>
       </c>
     </row>
     <row r="133">
@@ -1891,10 +1891,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.599748811955721</v>
+        <v>1.535703750590442</v>
       </c>
       <c r="C133" t="n">
-        <v>1.368545836752123</v>
+        <v>1.457626498697521</v>
       </c>
     </row>
     <row r="134">
@@ -1902,10 +1902,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.393457520201109</v>
+        <v>1.501312266189428</v>
       </c>
       <c r="C134" t="n">
-        <v>1.402826591447576</v>
+        <v>1.414209854507137</v>
       </c>
     </row>
     <row r="135">
@@ -1913,10 +1913,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.601318268708747</v>
+        <v>1.426661385279525</v>
       </c>
       <c r="C135" t="n">
-        <v>1.534045762907176</v>
+        <v>1.51026025548447</v>
       </c>
     </row>
     <row r="136">
@@ -1924,10 +1924,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.541636759261582</v>
+        <v>1.51022802569985</v>
       </c>
       <c r="C136" t="n">
-        <v>1.737799247937961</v>
+        <v>1.468669906145655</v>
       </c>
     </row>
     <row r="137">
@@ -1935,10 +1935,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.665729506264728</v>
+        <v>1.482442789158458</v>
       </c>
       <c r="C137" t="n">
-        <v>1.656279185522479</v>
+        <v>1.435026552780219</v>
       </c>
     </row>
     <row r="138">
@@ -1946,10 +1946,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.527830261168378</v>
+        <v>1.55791892088382</v>
       </c>
       <c r="C138" t="n">
-        <v>1.413013853998276</v>
+        <v>1.5050698164823</v>
       </c>
     </row>
     <row r="139">
@@ -1957,10 +1957,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.447012280918271</v>
+        <v>1.508210586065143</v>
       </c>
       <c r="C139" t="n">
-        <v>1.466267183333013</v>
+        <v>1.380768226807781</v>
       </c>
     </row>
     <row r="140">
@@ -1968,10 +1968,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.417938768165599</v>
+        <v>1.441235155498048</v>
       </c>
       <c r="C140" t="n">
-        <v>1.615251654412814</v>
+        <v>1.460494041566831</v>
       </c>
     </row>
     <row r="141">
@@ -1979,10 +1979,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.560492695391479</v>
+        <v>1.593576970800719</v>
       </c>
       <c r="C141" t="n">
-        <v>1.420238961591739</v>
+        <v>1.473826747498535</v>
       </c>
     </row>
     <row r="142">
@@ -1990,10 +1990,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.570323989834089</v>
+        <v>1.554929446432803</v>
       </c>
       <c r="C142" t="n">
-        <v>1.429244770047359</v>
+        <v>1.545234124097505</v>
       </c>
     </row>
     <row r="143">
@@ -2001,10 +2001,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.536617758652726</v>
+        <v>1.506878847206902</v>
       </c>
       <c r="C143" t="n">
-        <v>1.433132658847759</v>
+        <v>1.485540701626415</v>
       </c>
     </row>
     <row r="144">
@@ -2012,10 +2012,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.406240272764928</v>
+        <v>1.5268870219002</v>
       </c>
       <c r="C144" t="n">
-        <v>1.582013950450387</v>
+        <v>1.543616677331704</v>
       </c>
     </row>
     <row r="145">
@@ -2023,10 +2023,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.584755235005294</v>
+        <v>1.442229263369618</v>
       </c>
       <c r="C145" t="n">
-        <v>1.512677590127277</v>
+        <v>1.434575222796998</v>
       </c>
     </row>
     <row r="146">
@@ -2034,10 +2034,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.531003308419739</v>
+        <v>1.480376035075106</v>
       </c>
       <c r="C146" t="n">
-        <v>1.542309488052859</v>
+        <v>1.493717671325142</v>
       </c>
     </row>
     <row r="147">
@@ -2045,10 +2045,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.497208828789138</v>
+        <v>1.485821585909705</v>
       </c>
       <c r="C147" t="n">
-        <v>1.490207093896633</v>
+        <v>1.564452776358155</v>
       </c>
     </row>
     <row r="148">
@@ -2056,10 +2056,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.476150758959894</v>
+        <v>1.558003312978747</v>
       </c>
       <c r="C148" t="n">
-        <v>1.542876963118121</v>
+        <v>1.627617476448594</v>
       </c>
     </row>
     <row r="149">
@@ -2067,10 +2067,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.474956696539715</v>
+        <v>1.447738803740047</v>
       </c>
       <c r="C149" t="n">
-        <v>1.489429011355995</v>
+        <v>1.495555254833917</v>
       </c>
     </row>
     <row r="150">
@@ -2078,10 +2078,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.552885574578734</v>
+        <v>1.557628125850774</v>
       </c>
       <c r="C150" t="n">
-        <v>1.412200076255218</v>
+        <v>1.426938883350956</v>
       </c>
     </row>
     <row r="151">
@@ -2089,10 +2089,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.550027441675226</v>
+        <v>1.507586982246425</v>
       </c>
       <c r="C151" t="n">
-        <v>1.615879178679336</v>
+        <v>1.443400713029707</v>
       </c>
     </row>
     <row r="152">
@@ -2100,10 +2100,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.565485384495537</v>
+        <v>1.475576834959647</v>
       </c>
       <c r="C152" t="n">
-        <v>1.502478018713076</v>
+        <v>1.474253803562941</v>
       </c>
     </row>
     <row r="153">
@@ -2111,10 +2111,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.607704861239928</v>
+        <v>1.385088721979518</v>
       </c>
       <c r="C153" t="n">
-        <v>1.586923155292202</v>
+        <v>1.443102411382394</v>
       </c>
     </row>
     <row r="154">
@@ -2122,10 +2122,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.639127949688872</v>
+        <v>1.492835531798738</v>
       </c>
       <c r="C154" t="n">
-        <v>1.573342236987339</v>
+        <v>1.539367694508194</v>
       </c>
     </row>
     <row r="155">
@@ -2133,10 +2133,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.498786682968919</v>
+        <v>1.491925668416027</v>
       </c>
       <c r="C155" t="n">
-        <v>1.570865377092323</v>
+        <v>1.502837793077676</v>
       </c>
     </row>
     <row r="156">
@@ -2144,10 +2144,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.475088657229996</v>
+        <v>1.477303741140815</v>
       </c>
       <c r="C156" t="n">
-        <v>1.363508540760904</v>
+        <v>1.473839405117889</v>
       </c>
     </row>
     <row r="157">
@@ -2155,10 +2155,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.550932863179032</v>
+        <v>1.511763354219046</v>
       </c>
       <c r="C157" t="n">
-        <v>1.502867148485083</v>
+        <v>1.495084123816508</v>
       </c>
     </row>
     <row r="158">
@@ -2166,10 +2166,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.620077504365151</v>
+        <v>1.46024498757969</v>
       </c>
       <c r="C158" t="n">
-        <v>1.53146024674965</v>
+        <v>1.459343878985026</v>
       </c>
     </row>
   </sheetData>
